--- a/compare.xlsx
+++ b/compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Randomized Cartesian</t>
   </si>
@@ -43,19 +43,50 @@
   </si>
   <si>
     <t>Cartesian 4</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>descending</t>
+  </si>
+  <si>
+    <t>duplicates</t>
+  </si>
+  <si>
+    <t>DATA STUCTURE</t>
+  </si>
+  <si>
+    <t>Segmentation fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Segmentation fault</t>
+  </si>
+  <si>
+    <t>prior structure (in Cartesian)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,155 +394,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G17" sqref="G17:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1000</v>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>196</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>196</v>
+        <v>484</v>
       </c>
       <c r="E2">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="G2">
-        <v>329</v>
+        <v>597</v>
       </c>
       <c r="H2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10000</v>
+        <v>703</v>
+      </c>
+      <c r="I2">
+        <v>560</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>2859</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>2946</v>
+        <v>7143</v>
       </c>
       <c r="E3">
-        <v>2791</v>
+        <v>7110</v>
       </c>
       <c r="F3">
-        <v>2936</v>
+        <v>6732</v>
       </c>
       <c r="G3">
-        <v>4584</v>
+        <v>7705</v>
       </c>
       <c r="H3">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>100000</v>
+        <v>12778</v>
+      </c>
+      <c r="I3">
+        <v>7739</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>100000</v>
       </c>
       <c r="C4">
-        <v>48652</v>
+        <v>100000</v>
       </c>
       <c r="D4">
-        <v>52301</v>
+        <v>143258</v>
       </c>
       <c r="E4">
-        <v>50664</v>
+        <v>136902</v>
       </c>
       <c r="F4">
-        <v>53709</v>
+        <v>131125</v>
       </c>
       <c r="G4">
-        <v>80103</v>
+        <v>152425</v>
       </c>
       <c r="H4">
-        <v>48846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1000000</v>
+        <v>203525</v>
+      </c>
+      <c r="I4">
+        <v>119732</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1000000</v>
       </c>
       <c r="C5">
-        <v>1351819</v>
+        <v>1000000</v>
       </c>
       <c r="D5">
-        <v>1472577</v>
+        <v>3624831</v>
       </c>
       <c r="E5">
-        <v>1529379</v>
+        <v>2925823</v>
       </c>
       <c r="F5">
-        <v>1567907</v>
+        <v>2695723</v>
       </c>
       <c r="G5">
-        <v>2057058</v>
+        <v>3743037</v>
       </c>
       <c r="H5">
-        <v>1229186</v>
+        <v>4833000</v>
+      </c>
+      <c r="I5">
+        <v>2631267</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>181</v>
+      </c>
+      <c r="E7">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>14745</v>
+      </c>
+      <c r="G7">
+        <v>289</v>
+      </c>
+      <c r="H7">
+        <v>460</v>
+      </c>
+      <c r="I7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+      <c r="D8">
+        <v>2588</v>
+      </c>
+      <c r="E8">
+        <v>45898</v>
+      </c>
+      <c r="F8">
+        <v>1454217</v>
+      </c>
+      <c r="G8">
+        <v>19895</v>
+      </c>
+      <c r="H8">
+        <v>6172</v>
+      </c>
+      <c r="I8">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>100000</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>99550</v>
+      </c>
+      <c r="E9">
+        <v>50882945</v>
+      </c>
+      <c r="F9">
+        <v>113804416</v>
+      </c>
+      <c r="G9">
+        <v>600218</v>
+      </c>
+      <c r="H9">
+        <v>110335</v>
+      </c>
+      <c r="I9">
+        <v>113349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1000000</v>
+      </c>
+      <c r="C10">
+        <v>1000000</v>
+      </c>
+      <c r="D10">
+        <v>902184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2789027</v>
+      </c>
+      <c r="H10">
+        <v>1251930</v>
+      </c>
+      <c r="I10">
+        <v>1035373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>8642</v>
+      </c>
+      <c r="F12">
+        <v>7413</v>
+      </c>
+      <c r="G12">
+        <v>237</v>
+      </c>
+      <c r="H12">
+        <v>551</v>
+      </c>
+      <c r="I12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>2668</v>
+      </c>
+      <c r="E13">
+        <v>877847</v>
+      </c>
+      <c r="F13">
+        <v>598981</v>
+      </c>
+      <c r="G13">
+        <v>7501</v>
+      </c>
+      <c r="H13">
+        <v>5492</v>
+      </c>
+      <c r="I13">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>100000</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>79773</v>
+      </c>
+      <c r="E14">
+        <v>50489457</v>
+      </c>
+      <c r="F14">
+        <v>113954858</v>
+      </c>
+      <c r="G14">
+        <v>548783</v>
+      </c>
+      <c r="H14">
+        <v>112919</v>
+      </c>
+      <c r="I14">
+        <v>106098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1000000</v>
+      </c>
+      <c r="C15">
+        <v>1000000</v>
+      </c>
+      <c r="D15">
+        <v>1068583</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>8781315</v>
+      </c>
+      <c r="H15">
+        <v>1207294</v>
+      </c>
+      <c r="I15">
+        <v>1163325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>310</v>
+      </c>
+      <c r="E17">
+        <v>412</v>
+      </c>
+      <c r="F17">
+        <v>485</v>
+      </c>
+      <c r="G17">
+        <v>313</v>
+      </c>
+      <c r="H17">
+        <v>652</v>
+      </c>
+      <c r="I17">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <v>5216</v>
+      </c>
+      <c r="E18">
+        <v>10190</v>
+      </c>
+      <c r="F18">
+        <v>21395</v>
+      </c>
+      <c r="G18">
+        <v>4456</v>
+      </c>
+      <c r="H18">
+        <v>8198</v>
+      </c>
+      <c r="I18">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>100000</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>70845</v>
+      </c>
+      <c r="E19">
+        <v>677276</v>
+      </c>
+      <c r="F19">
+        <v>1207435</v>
+      </c>
+      <c r="G19">
+        <v>58331</v>
+      </c>
+      <c r="H19">
+        <v>118090</v>
+      </c>
+      <c r="I19">
+        <v>73334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>1000000</v>
+      </c>
+      <c r="D20">
+        <v>1756858</v>
+      </c>
+      <c r="E20">
+        <v>26665993</v>
+      </c>
+      <c r="F20">
+        <v>29844259</v>
+      </c>
+      <c r="G20">
+        <v>1557359</v>
+      </c>
+      <c r="H20">
+        <v>3219460</v>
+      </c>
+      <c r="I20">
+        <v>1855260</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Randomized Cartesian</t>
   </si>
@@ -33,18 +33,6 @@
     <t>Count of search</t>
   </si>
   <si>
-    <t>Cartesian 1</t>
-  </si>
-  <si>
-    <t>Cartesian 2</t>
-  </si>
-  <si>
-    <t>Cartesian 3</t>
-  </si>
-  <si>
-    <t>Cartesian 4</t>
-  </si>
-  <si>
     <t>random</t>
   </si>
   <si>
@@ -60,13 +48,7 @@
     <t>DATA STUCTURE</t>
   </si>
   <si>
-    <t>Segmentation fault</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Segmentation fault</t>
-  </si>
-  <si>
-    <t>prior structure (in Cartesian)</t>
+    <t>Cartesian</t>
   </si>
 </sst>
 </file>
@@ -394,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +388,7 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
@@ -415,9 +397,9 @@
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -426,30 +408,18 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -458,33 +428,18 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>484</v>
+        <v>164</v>
       </c>
       <c r="E2">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="F2">
-        <v>509</v>
-      </c>
-      <c r="G2">
-        <v>597</v>
-      </c>
-      <c r="H2">
-        <v>703</v>
-      </c>
-      <c r="I2">
-        <v>560</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>10000</v>
@@ -493,33 +448,18 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>7143</v>
+        <v>1721</v>
       </c>
       <c r="E3">
-        <v>7110</v>
+        <v>9902</v>
       </c>
       <c r="F3">
-        <v>6732</v>
-      </c>
-      <c r="G3">
-        <v>7705</v>
-      </c>
-      <c r="H3">
-        <v>12778</v>
-      </c>
-      <c r="I3">
-        <v>7739</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>100000</v>
@@ -528,33 +468,18 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <v>143258</v>
+        <v>19921</v>
       </c>
       <c r="E4">
-        <v>136902</v>
+        <v>194626</v>
       </c>
       <c r="F4">
-        <v>131125</v>
-      </c>
-      <c r="G4">
-        <v>152425</v>
-      </c>
-      <c r="H4">
-        <v>203525</v>
-      </c>
-      <c r="I4">
-        <v>119732</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>59591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1000000</v>
@@ -563,33 +488,18 @@
         <v>1000000</v>
       </c>
       <c r="D5">
-        <v>3624831</v>
+        <v>246283</v>
       </c>
       <c r="E5">
-        <v>2925823</v>
+        <v>5581878</v>
       </c>
       <c r="F5">
-        <v>2695723</v>
-      </c>
-      <c r="G5">
-        <v>3743037</v>
-      </c>
-      <c r="H5">
-        <v>4833000</v>
-      </c>
-      <c r="I5">
-        <v>2631267</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1570214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -598,27 +508,18 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E7">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F7">
-        <v>14745</v>
-      </c>
-      <c r="G7">
-        <v>289</v>
-      </c>
-      <c r="H7">
-        <v>460</v>
-      </c>
-      <c r="I7">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -627,27 +528,18 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>2588</v>
+        <v>1450</v>
       </c>
       <c r="E8">
-        <v>45898</v>
+        <v>4352</v>
       </c>
       <c r="F8">
-        <v>1454217</v>
-      </c>
-      <c r="G8">
-        <v>19895</v>
-      </c>
-      <c r="H8">
-        <v>6172</v>
-      </c>
-      <c r="I8">
-        <v>5139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>100000</v>
@@ -656,27 +548,18 @@
         <v>100000</v>
       </c>
       <c r="D9">
-        <v>99550</v>
+        <v>16794</v>
       </c>
       <c r="E9">
-        <v>50882945</v>
+        <v>52418</v>
       </c>
       <c r="F9">
-        <v>113804416</v>
-      </c>
-      <c r="G9">
-        <v>600218</v>
-      </c>
-      <c r="H9">
-        <v>110335</v>
-      </c>
-      <c r="I9">
-        <v>113349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1000000</v>
@@ -685,27 +568,18 @@
         <v>1000000</v>
       </c>
       <c r="D10">
-        <v>902184</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>2789027</v>
-      </c>
-      <c r="H10">
-        <v>1251930</v>
-      </c>
-      <c r="I10">
-        <v>1035373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>426899</v>
+      </c>
+      <c r="E10">
+        <v>680747</v>
+      </c>
+      <c r="F10">
+        <v>322085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1000</v>
@@ -714,27 +588,18 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="E12">
-        <v>8642</v>
+        <v>342</v>
       </c>
       <c r="F12">
-        <v>7413</v>
-      </c>
-      <c r="G12">
-        <v>237</v>
-      </c>
-      <c r="H12">
-        <v>551</v>
-      </c>
-      <c r="I12">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -743,27 +608,18 @@
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>2668</v>
+        <v>1818</v>
       </c>
       <c r="E13">
-        <v>877847</v>
+        <v>4374</v>
       </c>
       <c r="F13">
-        <v>598981</v>
-      </c>
-      <c r="G13">
-        <v>7501</v>
-      </c>
-      <c r="H13">
-        <v>5492</v>
-      </c>
-      <c r="I13">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>100000</v>
@@ -772,27 +628,18 @@
         <v>100000</v>
       </c>
       <c r="D14">
-        <v>79773</v>
+        <v>17803</v>
       </c>
       <c r="E14">
-        <v>50489457</v>
+        <v>55146</v>
       </c>
       <c r="F14">
-        <v>113954858</v>
-      </c>
-      <c r="G14">
-        <v>548783</v>
-      </c>
-      <c r="H14">
-        <v>112919</v>
-      </c>
-      <c r="I14">
-        <v>106098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>19035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1000000</v>
@@ -801,30 +648,21 @@
         <v>1000000</v>
       </c>
       <c r="D15">
-        <v>1068583</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>8781315</v>
-      </c>
-      <c r="H15">
-        <v>1207294</v>
-      </c>
-      <c r="I15">
-        <v>1163325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183400</v>
+      </c>
+      <c r="E15">
+        <v>703876</v>
+      </c>
+      <c r="F15">
+        <v>225597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -833,27 +671,18 @@
         <v>1000</v>
       </c>
       <c r="D17">
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="E17">
-        <v>412</v>
+        <v>501</v>
       </c>
       <c r="F17">
-        <v>485</v>
-      </c>
-      <c r="G17">
-        <v>313</v>
-      </c>
-      <c r="H17">
-        <v>652</v>
-      </c>
-      <c r="I17">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>10000</v>
@@ -862,27 +691,18 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>5216</v>
+        <v>1608</v>
       </c>
       <c r="E18">
-        <v>10190</v>
+        <v>7817</v>
       </c>
       <c r="F18">
-        <v>21395</v>
-      </c>
-      <c r="G18">
-        <v>4456</v>
-      </c>
-      <c r="H18">
-        <v>8198</v>
-      </c>
-      <c r="I18">
-        <v>5109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>100000</v>
@@ -891,27 +711,18 @@
         <v>100000</v>
       </c>
       <c r="D19">
-        <v>70845</v>
+        <v>17344</v>
       </c>
       <c r="E19">
-        <v>677276</v>
+        <v>118732</v>
       </c>
       <c r="F19">
-        <v>1207435</v>
-      </c>
-      <c r="G19">
-        <v>58331</v>
-      </c>
-      <c r="H19">
-        <v>118090</v>
-      </c>
-      <c r="I19">
-        <v>73334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>1000000</v>
@@ -920,22 +731,13 @@
         <v>1000000</v>
       </c>
       <c r="D20">
-        <v>1756858</v>
+        <v>186121</v>
       </c>
       <c r="E20">
-        <v>26665993</v>
+        <v>2967563</v>
       </c>
       <c r="F20">
-        <v>29844259</v>
-      </c>
-      <c r="G20">
-        <v>1557359</v>
-      </c>
-      <c r="H20">
-        <v>3219460</v>
-      </c>
-      <c r="I20">
-        <v>1855260</v>
+        <v>607417</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -431,7 +431,7 @@
         <v>164</v>
       </c>
       <c r="E2">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="F2">
         <v>188</v>
@@ -451,7 +451,7 @@
         <v>1721</v>
       </c>
       <c r="E3">
-        <v>9902</v>
+        <v>11584</v>
       </c>
       <c r="F3">
         <v>3014</v>
@@ -471,7 +471,7 @@
         <v>19921</v>
       </c>
       <c r="E4">
-        <v>194626</v>
+        <v>249617</v>
       </c>
       <c r="F4">
         <v>59591</v>
@@ -491,7 +491,7 @@
         <v>246283</v>
       </c>
       <c r="E5">
-        <v>5581878</v>
+        <v>5485304</v>
       </c>
       <c r="F5">
         <v>1570214</v>
@@ -511,7 +511,7 @@
         <v>192</v>
       </c>
       <c r="E7">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="F7">
         <v>154</v>
@@ -531,7 +531,7 @@
         <v>1450</v>
       </c>
       <c r="E8">
-        <v>4352</v>
+        <v>5116</v>
       </c>
       <c r="F8">
         <v>1757</v>
@@ -551,7 +551,7 @@
         <v>16794</v>
       </c>
       <c r="E9">
-        <v>52418</v>
+        <v>66221</v>
       </c>
       <c r="F9">
         <v>25864</v>
@@ -571,7 +571,7 @@
         <v>426899</v>
       </c>
       <c r="E10">
-        <v>680747</v>
+        <v>826669</v>
       </c>
       <c r="F10">
         <v>322085</v>
@@ -591,7 +591,7 @@
         <v>168</v>
       </c>
       <c r="E12">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="F12">
         <v>120</v>
@@ -611,7 +611,7 @@
         <v>1818</v>
       </c>
       <c r="E13">
-        <v>4374</v>
+        <v>5767</v>
       </c>
       <c r="F13">
         <v>1429</v>
@@ -631,7 +631,7 @@
         <v>17803</v>
       </c>
       <c r="E14">
-        <v>55146</v>
+        <v>68198</v>
       </c>
       <c r="F14">
         <v>19035</v>
@@ -651,7 +651,7 @@
         <v>183400</v>
       </c>
       <c r="E15">
-        <v>703876</v>
+        <v>810890</v>
       </c>
       <c r="F15">
         <v>225597</v>
@@ -674,7 +674,7 @@
         <v>156</v>
       </c>
       <c r="E17">
-        <v>501</v>
+        <v>668</v>
       </c>
       <c r="F17">
         <v>144</v>
@@ -694,7 +694,7 @@
         <v>1608</v>
       </c>
       <c r="E18">
-        <v>7817</v>
+        <v>10061</v>
       </c>
       <c r="F18">
         <v>2017</v>
@@ -714,7 +714,7 @@
         <v>17344</v>
       </c>
       <c r="E19">
-        <v>118732</v>
+        <v>141032</v>
       </c>
       <c r="F19">
         <v>28327</v>
@@ -734,7 +734,7 @@
         <v>186121</v>
       </c>
       <c r="E20">
-        <v>2967563</v>
+        <v>3537939</v>
       </c>
       <c r="F20">
         <v>607417</v>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D20" sqref="D17:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,13 +428,13 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <v>778</v>
+        <v>1660</v>
       </c>
       <c r="F2">
-        <v>188</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -448,13 +448,13 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>1721</v>
+        <v>1182</v>
       </c>
       <c r="E3">
-        <v>11584</v>
+        <v>25467</v>
       </c>
       <c r="F3">
-        <v>3014</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -468,13 +468,13 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <v>19921</v>
+        <v>14269</v>
       </c>
       <c r="E4">
-        <v>249617</v>
+        <v>439565</v>
       </c>
       <c r="F4">
-        <v>59591</v>
+        <v>93194</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,13 +488,13 @@
         <v>1000000</v>
       </c>
       <c r="D5">
-        <v>246283</v>
+        <v>123922</v>
       </c>
       <c r="E5">
-        <v>5485304</v>
+        <v>8458533</v>
       </c>
       <c r="F5">
-        <v>1570214</v>
+        <v>1930483</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -508,13 +508,13 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="E7">
-        <v>430</v>
+        <v>851</v>
       </c>
       <c r="F7">
-        <v>154</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,13 +528,13 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>1450</v>
+        <v>1231</v>
       </c>
       <c r="E8">
-        <v>5116</v>
+        <v>12775</v>
       </c>
       <c r="F8">
-        <v>1757</v>
+        <v>6881</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,13 +548,13 @@
         <v>100000</v>
       </c>
       <c r="D9">
-        <v>16794</v>
+        <v>12400</v>
       </c>
       <c r="E9">
-        <v>66221</v>
+        <v>162119</v>
       </c>
       <c r="F9">
-        <v>25864</v>
+        <v>61391</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,13 +568,13 @@
         <v>1000000</v>
       </c>
       <c r="D10">
-        <v>426899</v>
+        <v>121118</v>
       </c>
       <c r="E10">
-        <v>826669</v>
+        <v>3481870</v>
       </c>
       <c r="F10">
-        <v>322085</v>
+        <v>1304524</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,13 +588,13 @@
         <v>1000</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>397</v>
+        <v>924</v>
       </c>
       <c r="F12">
-        <v>120</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,13 +608,13 @@
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>1818</v>
+        <v>1185</v>
       </c>
       <c r="E13">
-        <v>5767</v>
+        <v>11787</v>
       </c>
       <c r="F13">
-        <v>1429</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -628,13 +628,13 @@
         <v>100000</v>
       </c>
       <c r="D14">
-        <v>17803</v>
+        <v>12012</v>
       </c>
       <c r="E14">
-        <v>68198</v>
+        <v>151819</v>
       </c>
       <c r="F14">
-        <v>19035</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,13 +648,13 @@
         <v>1000000</v>
       </c>
       <c r="D15">
-        <v>183400</v>
+        <v>120869</v>
       </c>
       <c r="E15">
-        <v>810890</v>
+        <v>3484129</v>
       </c>
       <c r="F15">
-        <v>225597</v>
+        <v>1464079</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,13 +671,13 @@
         <v>1000</v>
       </c>
       <c r="D17">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E17">
-        <v>668</v>
+        <v>1551</v>
       </c>
       <c r="F17">
-        <v>144</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,13 +691,13 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>1608</v>
+        <v>1222</v>
       </c>
       <c r="E18">
-        <v>10061</v>
+        <v>22262</v>
       </c>
       <c r="F18">
-        <v>2017</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,13 +711,13 @@
         <v>100000</v>
       </c>
       <c r="D19">
-        <v>17344</v>
+        <v>13738</v>
       </c>
       <c r="E19">
-        <v>141032</v>
+        <v>326882</v>
       </c>
       <c r="F19">
-        <v>28327</v>
+        <v>62533</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,13 +731,13 @@
         <v>1000000</v>
       </c>
       <c r="D20">
-        <v>186121</v>
+        <v>126550</v>
       </c>
       <c r="E20">
-        <v>3537939</v>
+        <v>5288780</v>
       </c>
       <c r="F20">
-        <v>607417</v>
+        <v>1116278</v>
       </c>
     </row>
   </sheetData>
